--- a/parameter_files/de_dg_gwq_upper.xlsx
+++ b/parameter_files/de_dg_gwq_upper.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{1B55F186-EA2C-4865-8DAB-A5C1B6051DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05F59547-BF21-4057-A36B-902BA3CE50D4}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{1B55F186-EA2C-4865-8DAB-A5C1B6051DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F34C23C-2EB5-472A-9AE7-39A30E92EB95}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C11508F3-0935-47AB-A4FD-BF724EA4D517}"/>
   </bookViews>
@@ -674,7 +674,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -685,19 +685,19 @@
     <row r="1" spans="1:8" s="14" customFormat="1" ht="76" x14ac:dyDescent="0.35">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>4</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>5</v>
@@ -765,22 +765,20 @@
       <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="4">
-        <v>-1</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="4">
         <v>-1</v>
       </c>
@@ -790,16 +788,16 @@
       <c r="E8" s="4">
         <v>-1</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="4">
+        <v>-1</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="4">
-        <v>-1</v>
-      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="4">
         <v>-1</v>
       </c>
@@ -809,7 +807,9 @@
       <c r="E9" s="4">
         <v>-1</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="4">
+        <v>-1</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -904,22 +904,20 @@
       <c r="A18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2">
-        <v>2</v>
-      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="8">
-        <v>-1</v>
-      </c>
+      <c r="B19" s="3"/>
       <c r="C19" s="8">
         <v>-1</v>
       </c>
@@ -929,16 +927,16 @@
       <c r="E19" s="8">
         <v>-1</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="8">
+        <v>-1</v>
+      </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="8">
-        <v>-1</v>
-      </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="8">
         <v>-1</v>
       </c>
@@ -948,40 +946,40 @@
       <c r="E20" s="8">
         <v>-1</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="8">
+        <v>-1</v>
+      </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="3">
-        <v>2</v>
-      </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="4">
-        <v>-1</v>
-      </c>
+      <c r="B23" s="4"/>
       <c r="C23" s="4">
         <v>-1</v>
       </c>
@@ -991,7 +989,9 @@
       <c r="E23" s="4">
         <v>-1</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="4">
+        <v>-1</v>
+      </c>
       <c r="G23" s="4">
         <v>-1</v>
       </c>
@@ -1025,9 +1025,7 @@
       <c r="A26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="4">
-        <v>-1</v>
-      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="4">
         <v>-1</v>
       </c>
@@ -1037,16 +1035,16 @@
       <c r="E26" s="4">
         <v>-1</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="4">
+        <v>-1</v>
+      </c>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="4">
-        <v>-1</v>
-      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="4">
         <v>-1</v>
       </c>
@@ -1056,16 +1054,16 @@
       <c r="E27" s="4">
         <v>-1</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="4">
+        <v>-1</v>
+      </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="4">
-        <v>-1</v>
-      </c>
+      <c r="B28" s="2"/>
       <c r="C28" s="4">
         <v>-1</v>
       </c>
@@ -1075,7 +1073,9 @@
       <c r="E28" s="4">
         <v>-1</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="4">
+        <v>-1</v>
+      </c>
       <c r="G28" s="2"/>
     </row>
   </sheetData>

--- a/parameter_files/de_dg_gwq_upper.xlsx
+++ b/parameter_files/de_dg_gwq_upper.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{1B55F186-EA2C-4865-8DAB-A5C1B6051DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F34C23C-2EB5-472A-9AE7-39A30E92EB95}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{1B55F186-EA2C-4865-8DAB-A5C1B6051DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{052EA0A9-0FC0-49ED-90A6-02F87031E3FD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C11508F3-0935-47AB-A4FD-BF724EA4D517}"/>
   </bookViews>
@@ -35,24 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
-    <t>small growers to gw quality</t>
-  </si>
-  <si>
-    <t>large growers to gw quality</t>
-  </si>
-  <si>
-    <t>small growers (white area) to gw quality</t>
-  </si>
-  <si>
-    <t>large growers (white area) to gw quality</t>
-  </si>
-  <si>
-    <t>rural communities to gw quality</t>
-  </si>
-  <si>
-    <t>municipalities to gw quality</t>
-  </si>
-  <si>
     <t>Bureau of Reclamation</t>
   </si>
   <si>
@@ -135,13 +117,31 @@
   </si>
   <si>
     <t>Division of Water Quality (SWRCB)</t>
+  </si>
+  <si>
+    <t>rural communities</t>
+  </si>
+  <si>
+    <t>small growers</t>
+  </si>
+  <si>
+    <t>investor growers</t>
+  </si>
+  <si>
+    <t>small growers (white area)</t>
+  </si>
+  <si>
+    <t>investor growers (white area)</t>
+  </si>
+  <si>
+    <t>municipalities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +185,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -194,7 +200,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -268,34 +274,6 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -310,11 +288,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -347,13 +368,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,7 +698,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -682,33 +706,33 @@
     <col min="1" max="1" width="28.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="14" customFormat="1" ht="76" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="12" customFormat="1" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11"/>
-      <c r="B1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="13" t="s">
+      <c r="B1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>29</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -719,7 +743,7 @@
     </row>
     <row r="3" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -730,7 +754,7 @@
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -741,7 +765,7 @@
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -752,7 +776,7 @@
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -763,7 +787,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -776,7 +800,7 @@
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="4">
@@ -795,7 +819,7 @@
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="4">
@@ -814,7 +838,7 @@
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -825,7 +849,7 @@
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -836,7 +860,7 @@
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -847,7 +871,7 @@
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -858,7 +882,7 @@
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -869,7 +893,7 @@
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -880,7 +904,7 @@
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -891,7 +915,7 @@
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -902,7 +926,7 @@
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
@@ -915,7 +939,7 @@
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="8">
@@ -934,7 +958,7 @@
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="8">
@@ -953,7 +977,7 @@
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
@@ -964,7 +988,7 @@
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B22" s="3">
         <v>2</v>
@@ -977,7 +1001,7 @@
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
@@ -1001,7 +1025,7 @@
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1012,7 +1036,7 @@
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1023,7 +1047,7 @@
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="4">
@@ -1042,7 +1066,7 @@
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="4">
@@ -1061,7 +1085,7 @@
     </row>
     <row r="28" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="4">
